--- a/CAD/LW bike BOM 1.xlsx
+++ b/CAD/LW bike BOM 1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="177">
   <si>
     <t>Item</t>
   </si>
@@ -282,19 +282,22 @@
     <t>440.000 mm</t>
   </si>
   <si>
-    <t>516.000 mm</t>
-  </si>
-  <si>
-    <t>280.000 mm</t>
+    <t>532.000 mm</t>
+  </si>
+  <si>
+    <t>304.000 mm</t>
+  </si>
+  <si>
+    <t>230.000 mm</t>
+  </si>
+  <si>
+    <t>260.000 mm</t>
   </si>
   <si>
     <t>240.000 mm</t>
   </si>
   <si>
-    <t>230.000 mm</t>
-  </si>
-  <si>
-    <t>275.000 mm</t>
+    <t>289.000 mm</t>
   </si>
   <si>
     <t>80.000 mm</t>
@@ -336,25 +339,28 @@
     <t>0.364 kg</t>
   </si>
   <si>
-    <t>0.427 kg</t>
-  </si>
-  <si>
-    <t>0.232 kg</t>
+    <t>0.440 kg</t>
+  </si>
+  <si>
+    <t>0.252 kg</t>
+  </si>
+  <si>
+    <t>0.190 kg</t>
+  </si>
+  <si>
+    <t>0.215 kg</t>
   </si>
   <si>
     <t>0.199 kg</t>
   </si>
   <si>
-    <t>0.190 kg</t>
-  </si>
-  <si>
-    <t>0.228 kg</t>
+    <t>0.239 kg</t>
   </si>
   <si>
     <t>0.066 kg</t>
   </si>
   <si>
-    <t>0.246 kg</t>
+    <t>0.188 kg</t>
   </si>
   <si>
     <t>0.243 kg</t>
@@ -369,9 +375,6 @@
     <t>0.160 kg</t>
   </si>
   <si>
-    <t>0.440 kg</t>
-  </si>
-  <si>
     <t>0.170 kg</t>
   </si>
   <si>
@@ -405,19 +408,22 @@
     <t>£2.41</t>
   </si>
   <si>
-    <t>£2.83</t>
-  </si>
-  <si>
-    <t>£1.53</t>
+    <t>£2.92</t>
+  </si>
+  <si>
+    <t>£1.67</t>
+  </si>
+  <si>
+    <t>£1.26</t>
+  </si>
+  <si>
+    <t>£1.42</t>
   </si>
   <si>
     <t>£1.32</t>
   </si>
   <si>
-    <t>£1.26</t>
-  </si>
-  <si>
-    <t>£1.51</t>
+    <t>£1.58</t>
   </si>
   <si>
     <t>£.44</t>
@@ -5718,22 +5724,22 @@
         <v>33.700000000000003</v>
       </c>
       <c r="H2" s="189" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I2" s="214" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J2" s="239" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K2" s="264" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L2" s="289" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M2" s="314" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3">
@@ -5759,22 +5765,22 @@
         <v>33.700000000000003</v>
       </c>
       <c r="H3" s="190" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I3" s="215" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J3" s="240" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K3" s="265" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L3" s="290" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M3" s="315" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4">
@@ -5800,22 +5806,22 @@
         <v>33.700000000000003</v>
       </c>
       <c r="H4" s="191" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I4" s="216" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J4" s="241" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K4" s="266" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L4" s="291" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M4" s="316" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5">
@@ -5841,22 +5847,22 @@
         <v>33.700000000000003</v>
       </c>
       <c r="H5" s="192" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I5" s="217" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J5" s="242" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K5" s="267" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L5" s="292" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M5" s="317" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6">
@@ -5882,22 +5888,22 @@
         <v>33.700000000000003</v>
       </c>
       <c r="H6" s="193" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I6" s="218" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J6" s="243" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K6" s="268" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L6" s="293" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M6" s="318" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7">
@@ -5917,28 +5923,28 @@
         <v>1</v>
       </c>
       <c r="F7" s="144" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G7" s="169">
         <v>33.700000000000003</v>
       </c>
       <c r="H7" s="194" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I7" s="219" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J7" s="244" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K7" s="269" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L7" s="294" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M7" s="319" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8">
@@ -5958,28 +5964,28 @@
         <v>2</v>
       </c>
       <c r="F8" s="145" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G8" s="170">
         <v>33.700000000000003</v>
       </c>
       <c r="H8" s="195" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I8" s="220" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J8" s="245" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K8" s="270" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L8" s="295" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M8" s="320" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9">
@@ -5999,28 +6005,28 @@
         <v>2</v>
       </c>
       <c r="F9" s="146" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G9" s="171">
         <v>33.700000000000003</v>
       </c>
       <c r="H9" s="196" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I9" s="221" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J9" s="246" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K9" s="271" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L9" s="296" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M9" s="321" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10">
@@ -6040,28 +6046,28 @@
         <v>1</v>
       </c>
       <c r="F10" s="147">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="G10" s="172">
         <v>32.399999999999999</v>
       </c>
       <c r="H10" s="197" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I10" s="222" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J10" s="247" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K10" s="272" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L10" s="297" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M10" s="322" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11">
@@ -6087,22 +6093,22 @@
         <v>42</v>
       </c>
       <c r="H11" s="198" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I11" s="223" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J11" s="248" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K11" s="273" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L11" s="298" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M11" s="323" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12">
@@ -6122,28 +6128,28 @@
         <v>5</v>
       </c>
       <c r="F12" s="149" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G12" s="174" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H12" s="199" t="s">
         <v>18</v>
       </c>
       <c r="I12" s="224" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J12" s="249" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K12" s="274" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L12" s="299" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M12" s="324" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13">
@@ -6163,28 +6169,28 @@
         <v>1</v>
       </c>
       <c r="F13" s="150" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G13" s="175" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H13" s="200" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I13" s="225" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J13" s="250" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K13" s="275" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L13" s="300" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M13" s="325" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14">
@@ -6204,28 +6210,28 @@
         <v>1</v>
       </c>
       <c r="F14" s="151" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G14" s="176" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H14" s="201" t="s">
         <v>18</v>
       </c>
       <c r="I14" s="226" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J14" s="251" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K14" s="276" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L14" s="301" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M14" s="326" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15">
@@ -6245,28 +6251,28 @@
         <v>1</v>
       </c>
       <c r="F15" s="152" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G15" s="177" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H15" s="202" t="s">
         <v>18</v>
       </c>
       <c r="I15" s="227" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J15" s="252" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="K15" s="277" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L15" s="302" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M15" s="327" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16">
@@ -6286,28 +6292,28 @@
         <v>5</v>
       </c>
       <c r="F16" s="153" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G16" s="178" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H16" s="203" t="s">
         <v>18</v>
       </c>
       <c r="I16" s="228" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J16" s="253" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K16" s="278" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L16" s="303" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M16" s="328" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
@@ -6327,28 +6333,28 @@
         <v>2</v>
       </c>
       <c r="F17" s="154" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G17" s="179" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H17" s="204" t="s">
         <v>18</v>
       </c>
       <c r="I17" s="229" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J17" s="254" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K17" s="279" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L17" s="304" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M17" s="329" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18">
@@ -6368,28 +6374,28 @@
         <v>1</v>
       </c>
       <c r="F18" s="155" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G18" s="180" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H18" s="205" t="s">
         <v>17</v>
       </c>
       <c r="I18" s="230" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J18" s="255" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K18" s="280" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L18" s="305" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M18" s="330" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19">
@@ -6409,28 +6415,28 @@
         <v>1</v>
       </c>
       <c r="F19" s="156" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G19" s="181" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H19" s="206" t="s">
         <v>18</v>
       </c>
       <c r="I19" s="231" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J19" s="256" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K19" s="281" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L19" s="306" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M19" s="331" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20">
@@ -6450,28 +6456,28 @@
         <v>3</v>
       </c>
       <c r="F20" s="157" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G20" s="182" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H20" s="207" t="s">
         <v>18</v>
       </c>
       <c r="I20" s="232" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J20" s="257" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K20" s="282" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L20" s="307" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M20" s="332" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21">
@@ -6491,28 +6497,28 @@
         <v>1</v>
       </c>
       <c r="F21" s="158" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G21" s="183" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H21" s="208" t="s">
         <v>18</v>
       </c>
       <c r="I21" s="233" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J21" s="258" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K21" s="283" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L21" s="308" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M21" s="333" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22">
@@ -6532,28 +6538,28 @@
         <v>4</v>
       </c>
       <c r="F22" s="159" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G22" s="184" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H22" s="209" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I22" s="234" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J22" s="259" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K22" s="284" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L22" s="309" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M22" s="334" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23">
@@ -6573,28 +6579,28 @@
         <v>2</v>
       </c>
       <c r="F23" s="160" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G23" s="185" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H23" s="210" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I23" s="235" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J23" s="260" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K23" s="285" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L23" s="310" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M23" s="335" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24">
@@ -6614,28 +6620,28 @@
         <v>4</v>
       </c>
       <c r="F24" s="161" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G24" s="186" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H24" s="211" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I24" s="236" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J24" s="261" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K24" s="286" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L24" s="311" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M24" s="336" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25">
@@ -6655,28 +6661,28 @@
         <v>6</v>
       </c>
       <c r="F25" s="162" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G25" s="187" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H25" s="212" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I25" s="237" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J25" s="262" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K25" s="287" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L25" s="312" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M25" s="337" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26">
@@ -6696,28 +6702,28 @@
         <v>18</v>
       </c>
       <c r="F26" s="163" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G26" s="188" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H26" s="213" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I26" s="238" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J26" s="263" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K26" s="288" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L26" s="313" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M26" s="338" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
